--- a/document/commands.xlsx
+++ b/document/commands.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20775" windowHeight="12630"/>
+    <workbookView windowWidth="12645" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381">
   <si>
     <t>命令</t>
   </si>
@@ -103,364 +103,712 @@
     <t>bitsadmin</t>
   </si>
   <si>
+    <t>bitsadmin 是一个 command-line 工具, 您可以使用它来创建下载或上传作业并监视其进度。</t>
+  </si>
+  <si>
     <t>bootcfg</t>
   </si>
   <si>
-    <t>break_1</t>
-  </si>
-  <si>
-    <t>cacls_1</t>
+    <t>配置、查询或更改boot.ini 文件设置。</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>设置或清除 ms-dos 系统的扩展 ctrl+c 检查。如果在不带参数的情况下使用, 则中断将显示当前设置。</t>
+  </si>
+  <si>
+    <t>cacls</t>
+  </si>
+  <si>
+    <t>在指定的文件上显示或修改任意访问控制列表 (dacl)。</t>
   </si>
   <si>
     <t>call</t>
   </si>
   <si>
+    <t>在不停止父批处理程序的情况下, 从另一个批处理程序调用。call命令接受标签作为调用的目标。</t>
+  </si>
+  <si>
     <t>cd</t>
   </si>
   <si>
-    <t>certreq_old</t>
+    <t>显示或更改当前目录的名称。如果只与驱动器号 (例如, cd c:) 一起使用, 则 cd 会在指定的驱动器中显示当前目录的名称。如果使用不带参数的 cd, 则显示当前驱动器和目录。</t>
   </si>
   <si>
     <t>certutil</t>
   </si>
   <si>
+    <t>Certutil.exe 是作为证书服务的一部分而安装的 command-line 程序。可以使用 Certutil.exe 转储和显示证书颁发机构 (ca) 配置信息、配置证书服务、备份和还原 ca 组件以及验证证书、密钥对和证书链。</t>
+  </si>
+  <si>
     <t>change</t>
   </si>
   <si>
+    <t>更改登录、com 端口映射和安装模式的远程桌面会话主机 (rd 会话主机) 服务器设置。</t>
+  </si>
+  <si>
     <t>chcp</t>
   </si>
   <si>
-    <t>chdir_1</t>
+    <t>更改活动控制台代码页。如果在没有参数的情况下使用, chcp 将显示活动控制台代码页的编号。</t>
+  </si>
+  <si>
+    <t>chdir</t>
+  </si>
+  <si>
+    <t>此命令与 cd 命令相同。</t>
   </si>
   <si>
     <t>chglogon</t>
   </si>
   <si>
+    <t>启用或禁用 rd 会话主机服务器上的客户端会话的登录, 或显示当前登录状态。</t>
+  </si>
+  <si>
     <t>chgport</t>
   </si>
   <si>
+    <t>列出或更改 com 端口映射, 以便与 ms-dos 应用程序兼容。</t>
+  </si>
+  <si>
     <t>chgusr</t>
   </si>
   <si>
+    <t>更改远程桌面会话主机 (rd 会话主机) 服务器的安装模式。</t>
+  </si>
+  <si>
     <t>chkdsk</t>
   </si>
   <si>
+    <t>检查卷的文件系统和文件系统元数据是否有逻辑和物理错误。如果在没有参数的情况下使用, chkdsk 只显示该卷的状态, 并且不修复任何错误。如果与/f、/r、/x 或/b 参数一起使用, 则会修复卷上的错误。</t>
+  </si>
+  <si>
     <t>chkntfs</t>
   </si>
   <si>
+    <t>在计算机启动时显示或修改自动磁盘检查。如果在没有选项的情况下使用, chkntfs/x 将显示指定卷的文件系统。如果计划运行自动文件检查, chkntfs/x 将显示指定的卷是否已脏或计划在下次启动计算机时进行检查。</t>
+  </si>
+  <si>
     <t>choice</t>
   </si>
   <si>
+    <t>提示用户从批处理程序中的单字选项列表中选择一个项目, 然后返回所选选项的索引。如果在没有参数的情况下使用, 则选择将显示默认选项 y 和 n。</t>
+  </si>
+  <si>
     <t>cipher</t>
   </si>
   <si>
+    <t>显示或更改 ntfs 卷上的目录和文件的加密。如果在没有参数的情况下使用, 则密码显示当前目录及其所包含的任何文件的加密状态。</t>
+  </si>
+  <si>
     <t>clip</t>
   </si>
   <si>
+    <t>将命令输出从命令行重定向到 windows 剪贴板。然后, 可以将此文本输出粘贴到其他程序中。</t>
+  </si>
+  <si>
     <t>cls</t>
   </si>
   <si>
+    <t>清除命令提示符窗口。</t>
+  </si>
+  <si>
     <t>Cmd</t>
   </si>
   <si>
+    <t>启动命令解释器的新实例 Cmd.exe。如果使用时没有参数, cmd 将显示操作系统的版本和版权信息。</t>
+  </si>
+  <si>
     <t>cmdkey</t>
   </si>
   <si>
+    <t>创建、列出和删除存储的用户名、密码或凭据。</t>
+  </si>
+  <si>
     <t>cmstp</t>
   </si>
   <si>
+    <t>安装或删除连接管理器服务配置文件。如果不使用可选参数, cmstp 将使用与操作系统和用户权限对应的默认设置来安装服务配置文件。</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
+    <t>在当前会话的命令提示符窗口中更改前景色和背景色。如果在没有参数的情况下使用, 颜色将恢复默认的命令提示符窗口前景和背景颜色。</t>
+  </si>
+  <si>
     <t>comp</t>
   </si>
   <si>
+    <t>将两个文件或文件集的内容逐字节进行比较。如果在没有参数的情况下使用, 则复合将提示您输入要比较的文件。</t>
+  </si>
+  <si>
     <t>compact</t>
   </si>
   <si>
+    <t>显示或更改 ntfs 分区上的文件或目录的压缩。如果在没有参数的情况下使用, 则紧凑显示当前目录及其所包含文件的压缩状态。</t>
+  </si>
+  <si>
     <t>convert</t>
   </si>
   <si>
+    <t>将文件分配表 (fat) 和 FAT32 卷转换为 ntfs 文件系统, 保留现有的文件和目录。转换为 ntfs 文件系统的卷不能转换回 fat 或 FAT32。</t>
+  </si>
+  <si>
     <t>copy</t>
   </si>
   <si>
-    <t>cprofile</t>
+    <t>将一个或多个文件从一个地点复制到另一个位置。</t>
   </si>
   <si>
     <t>cscript</t>
   </si>
   <si>
+    <t>启动一个脚本, 使其在 command-line 的环境中运行。</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
+    <t>显示或设置系统日期。如果在没有参数的情况下使用, 日期将显示当前的系统日期设置, 并提示您输入新日期。</t>
+  </si>
+  <si>
     <t>dcgpofix</t>
   </si>
   <si>
+    <t>重新创建域的默认组策略对象 (gpo)。</t>
+  </si>
+  <si>
     <t>defrag</t>
   </si>
   <si>
+    <t>定位并合并本地卷上的零碎文件, 以提高系统性能。本地管理员组或等效的成员身份是运行此命令所需的最低要求。</t>
+  </si>
+  <si>
     <t>del</t>
   </si>
   <si>
+    <t>删除一个或多个文件。此命令与 "erase" 命令相同。</t>
+  </si>
+  <si>
     <t>dfsrmig</t>
   </si>
   <si>
+    <t>dfsrmig 命令将 sysvol 复制从文件复制服务 (frs) 迁移到分布式文件系统 (dfs) 复制, 提供有关迁移进度的信息, 并修改活动目录域服务 (ad ds) 对象以支持迁移。</t>
+  </si>
+  <si>
     <t>diantz</t>
   </si>
   <si>
+    <t>与“makecab”命令一样。</t>
+  </si>
+  <si>
     <t>dir</t>
   </si>
   <si>
+    <t>显示目录的文件和子目录的列表。如果在没有参数的情况下使用, dir 将显示磁盘的卷标和序列号, 后跟磁盘上的目录和文件列表 (包括它们的名称以及上次修改的日期和时间)。对于文件, dir 显示名称扩展名和大小 (以字节为单位)。dir 还显示列出的文件和目录的总数、它们的累计大小以及磁盘上剩余的可用空间 (以字节为单位)。</t>
+  </si>
+  <si>
     <t>diskcomp</t>
   </si>
   <si>
+    <t>比较两个软盘的内容。如果在没有参数的情况下使用, diskcomp 将使用当前驱动器来比较这两个磁盘。</t>
+  </si>
+  <si>
     <t>diskcopy</t>
   </si>
   <si>
+    <t>将源驱动器中软盘的内容复制到目标驱动器中的格式化或无格式的软盘。如果在没有参数的情况下使用, diskcopy 将对源磁盘和目标磁盘使用当前驱动器。</t>
+  </si>
+  <si>
     <t>diskperf</t>
   </si>
   <si>
+    <t>diskperf 包括在 windows xp、windows server 2003、windows server 2008、windows vista、windows server 2008 R2 和 windows 7 中, 以便它可以用于远程启用或禁用运行 windows 2000 的计算机上的物理或逻辑磁盘性能计数器。</t>
+  </si>
+  <si>
     <t>diskraid</t>
   </si>
   <si>
+    <t>DiskRAID 是一个 command-line 工具, 它使您能够配置和管理独立 (或廉价) 磁盘 (raid) 存储子系统的冗余阵列。</t>
+  </si>
+  <si>
     <t>diskshadow</t>
   </si>
   <si>
+    <t>diskshadow.exe 是一个工具, 它公开了卷影复制服务 (vss) 提供的功能。默认情况下, diskshadow 使用与 diskraid 或 diskpart 类似的交互式命令解释器。diskshadow 还包括一个可脚本化的模式。</t>
+  </si>
+  <si>
     <t>dispdiag</t>
   </si>
   <si>
+    <t>日志将信息显示到文件。</t>
+  </si>
+  <si>
     <t>Dnscmd</t>
   </si>
   <si>
+    <t>用于管理 dns 服务器的 command-line 接口。此实用程序在编写批处理文件以帮助自动化常规 dns 管理任务或在网络上执行简单的无人参与安装和配置新 dns 服务器时非常有用。</t>
+  </si>
+  <si>
     <t>doskey</t>
   </si>
   <si>
+    <t>调用 Doskey.exe (它回调以前输入的 command-line 命令), 编辑命令行, 并创建宏。</t>
+  </si>
+  <si>
     <t>driverquery</t>
   </si>
   <si>
+    <t>使管理员能够显示已安装的设备驱动程序及其属性的列表。如果在没有参数的情况下使用, driverquery将在本地计算机上运行。</t>
+  </si>
+  <si>
     <t>echo</t>
   </si>
   <si>
+    <t>显示消息或打开或关闭命令回显功能。如果在没有参数的情况下使用, 则 echo 将显示当前echo的设置。</t>
+  </si>
+  <si>
     <t>edit</t>
   </si>
   <si>
+    <t>启动 ms-dos 编辑器, 它创建和更改 ascii 文本文件。</t>
+  </si>
+  <si>
     <t>endlocal</t>
   </si>
   <si>
+    <t>结束批处理文件中环境更改的本地化, 并在运行相应的 setlocal 命令之前将环境变量还原为它们的值。</t>
+  </si>
+  <si>
     <t>erase</t>
   </si>
   <si>
+    <t>与“del”命令一样。</t>
+  </si>
+  <si>
     <t>Evntcmd</t>
   </si>
   <si>
+    <t>根据配置文件中的信息, 将事件的转换配置为陷阱、陷阱目标或者它们两个。</t>
+  </si>
+  <si>
     <t>eventcreate</t>
   </si>
   <si>
+    <t>使管理员能够在指定的事件日志中创建自定义事件。</t>
+  </si>
+  <si>
     <t>eventquery</t>
   </si>
   <si>
+    <t>eventquery 已被弃用, 并且在将来的 windows 版本中不保证支持。此工具包括在 windows server 2003 中。</t>
+  </si>
+  <si>
     <t>eventtriggers</t>
   </si>
   <si>
-    <t>exit_2</t>
+    <t>eventtriggers已被弃用, 并且在将来的 windows 版本中不保证支持。显示和配置本地或远程计算机上的事件触发器。</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>退出 diskpart 命令解释器。</t>
   </si>
   <si>
     <t>expand</t>
   </si>
   <si>
+    <t>展开一个或多个压缩文件。可以使用此命令从分发磁盘中检索压缩文件。</t>
+  </si>
+  <si>
     <t>extract</t>
   </si>
   <si>
     <t>fc</t>
   </si>
   <si>
+    <t>比较两个文件或文件集, 并显示它们之间的差异。</t>
+  </si>
+  <si>
     <t>find</t>
   </si>
   <si>
+    <t>在文件或文件中搜索文本字符串, 并显示包含指定字符串的文本行。</t>
+  </si>
+  <si>
     <t>findstr</t>
   </si>
   <si>
+    <t>搜索文件中的文本模式。</t>
+  </si>
+  <si>
     <t>finger</t>
   </si>
   <si>
+    <t>显示在运行finger服务或守护进程的指定远程计算机 (通常是运行 unix 的计算机) 上的用户或用户的信息。远程计算机指定用户信息显示的格式和输出。finger无参数时将显示帮助。</t>
+  </si>
+  <si>
     <t>flattemp</t>
   </si>
   <si>
+    <t>启用或禁用平面临时文件夹。</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
+    <t>为一组文件中的每个文件运行指定的命令。</t>
+  </si>
+  <si>
     <t>forfiles</t>
   </si>
   <si>
+    <t>在文件或文件集上选择并执行命令。此命令对批处理很有用。</t>
+  </si>
+  <si>
     <t>format</t>
   </si>
   <si>
+    <t>格式化磁盘以接受 windows 文件。</t>
+  </si>
+  <si>
     <t>freedisk</t>
   </si>
   <si>
+    <t>在继续安装过程之前, 检查指定的磁盘空间是否可用。</t>
+  </si>
+  <si>
     <t>fsutil</t>
   </si>
   <si>
+    <t>执行与文件分配表 (fat) 和 ntfs 文件系统相关的任务, 如管理重分析点、管理稀疏文件或卸除卷。如果在没有参数的情况下使用, fsutil 将显示支持的子列表。</t>
+  </si>
+  <si>
     <t>ftp</t>
   </si>
   <si>
+    <t>将文件传输到运行文件传输协议 (ftp) 服务器服务的计算机。ftp 可以通过处理 ascii 文本文件以交互方式或批处理使用。</t>
+  </si>
+  <si>
     <t>ftype</t>
   </si>
   <si>
+    <t>显示或修改在文件扩展名关联中使用的文件类型。如果在没有赋值运算符 (=) 的情况下使用, ftype 将显示指定文件类型的当前打开的命令字符串。如果在没有参数的情况下使用, ftype 将显示已定义的打开命令字符串的文件类型。</t>
+  </si>
+  <si>
     <t>fveupdate</t>
   </si>
   <si>
+    <t>FveUpdate 是一种内部使用的工具, 当计算机从 windows vista 或 windows server 2008 升级到 windows 7 或 windows server 2008 R2 时, 由安装程序运行。它更新与 bitlocker 关联的元数据到最新版本。此工具不能独立运行。</t>
+  </si>
+  <si>
     <t>getmac</t>
   </si>
   <si>
+    <t>返回与每个计算机中的所有网卡 (本地或网络) 的每个地址关联的媒体访问控制 (mac) 地址和网络协议列表。</t>
+  </si>
+  <si>
     <t>gettype</t>
   </si>
   <si>
+    <t>gettype 已被弃用, 并且在将来的 windows 版本中不保证支持。</t>
+  </si>
+  <si>
     <t>goto</t>
   </si>
   <si>
+    <t>将 cmd.exe 定向到批处理程序中的标记行。在批处理程序中, goto 将命令处理定向到由标签标识的行。当找到标签时, 处理继续从下一行开始的命令开始。</t>
+  </si>
+  <si>
     <t>gpfixup</t>
   </si>
   <si>
+    <t>在域重命名操作之后, 修复组策略对象和组策略链接中的域名依赖项。</t>
+  </si>
+  <si>
     <t>gpresult</t>
   </si>
   <si>
+    <t>显示远程用户和计算机的策略的结果集 (rsop) 信息。要通过防火墙对远程目标计算机使用 rsop 报告, 您必须具有在端口上启用入站网络通信的防火墙规则。</t>
+  </si>
+  <si>
     <t>gpupdate</t>
   </si>
   <si>
+    <t>更新组策略设置。</t>
+  </si>
+  <si>
     <t>graftabl</t>
   </si>
   <si>
+    <t>使 windows 操作系统能够在图形模式下显示扩展字符集。如果在没有参数的情况下使用, graftabl 将显示上一个和当前代码页。</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>提供有关系统命令 (即非命令) 的联机信息。如果在没有参数的情况下使用, help将列出和简要描述每个系统命令。</t>
+  </si>
+  <si>
     <t>helpctr</t>
   </si>
   <si>
+    <t>Helpctr 已被弃用, 并且在将来的 windows 版本中不保证支持。启动帮助和支持中心。使用不带参数的 helpctr 可以显示“帮助和支持中心”首页。</t>
+  </si>
+  <si>
     <t>hostname</t>
   </si>
   <si>
+    <t>显示计算机的完整计算机名的主机名部分。</t>
+  </si>
+  <si>
     <t>icacls</t>
   </si>
   <si>
+    <t>显示或修改指定文件上的任意访问控制列表 (dacl), 并将存储的 dacl 应用于指定目录中的文件。</t>
+  </si>
+  <si>
     <t>if</t>
   </si>
   <si>
+    <t>在批处理程序中执行条件处理。</t>
+  </si>
+  <si>
     <t>inuse</t>
   </si>
   <si>
+    <t>inuse 已被弃用, 并且在将来的 windows 版本中不保证支持。替换被锁定的操作系统文件。重新启动操作系统前不会替换指定的文件。</t>
+  </si>
+  <si>
     <t>ipconfig</t>
   </si>
   <si>
+    <t>显示所有当前 tcp/ip 网络配置值并刷新动态主机配置协议 (dhcp) 和域名系统 (dns) 设置。如果不使用参数, ipconfig 将显示 internet 协议版本 4 (IPv4) 和 IPv6 地址、子网掩码以及所有适配器的默认网关。</t>
+  </si>
+  <si>
     <t>ipxroute</t>
   </si>
   <si>
+    <t>显示和修改有关 ipx 协议所使用的路由表的信息。如果不使用参数, ipxroute 将显示发送到未知、广播和多播地址的数据包的默认设置。</t>
+  </si>
+  <si>
     <t>irftp</t>
   </si>
   <si>
+    <t>通过红外线链接发送文件。</t>
+  </si>
+  <si>
     <t>jetpack</t>
   </si>
   <si>
+    <t>压缩 windows internet 名称服务 (wins) 或动态主机配置协议 (dhcp) 数据库。microsoft 建议您在 wins 数据库接近 30 mb 时将其压缩。</t>
+  </si>
+  <si>
     <t>klist</t>
   </si>
   <si>
+    <t>显示当前缓存的 kerberos 票证的列表。此信息适用于 windows server 2012。</t>
+  </si>
+  <si>
     <t>ksetup</t>
   </si>
   <si>
+    <t>执行与设置和维护 kerberos 协议以及密钥分发中心 (kdc) 相关联的任务, 以支持 kerberos 领域, 而这也不是 windows 域。</t>
+  </si>
+  <si>
     <t>ktmutil</t>
   </si>
   <si>
+    <t>启动内核事务管理器实用程序。如果在没有参数的情况下使用, ktmutil 将显示可用的子命令。</t>
+  </si>
+  <si>
     <t>ktpass</t>
   </si>
   <si>
+    <t>在 active directory 域服务 (ad ds) 中配置主机或服务的服务器主体名称, 并生成一个包含该服务的共享密钥的. keytab 文件。. keytab 文件基于麻省理工学院 (mit) 的 kerberos 身份验证协议的实施。ktpass command-line 工具允许支持 kerberos 身份验证的非 windows 服务使用 kerberos 密钥分发中心 (kdc) 服务提供的互操作性功能。本主题适用于在本主题开头的 "应用于" 列表中指定的操作系统版本。</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
+    <t>创建、更改或删除磁盘的卷标 (即名称)。如果在没有参数的情况下使用, 标签命令将更改当前卷标签或删除现有标签。</t>
+  </si>
+  <si>
     <t>lodctr</t>
   </si>
   <si>
+    <t>允许您在文件中注册或保存性能计数器名称和注册表设置, 并指定受信任的服务。</t>
+  </si>
+  <si>
     <t>logman</t>
   </si>
   <si>
+    <t>logman 创建和管理事件跟踪会话和性能日志, 并从命令行支持性能监视器的许多功能。</t>
+  </si>
+  <si>
     <t>logoff</t>
   </si>
   <si>
+    <t>从远程桌面会话主机 (rd 会话主机) 服务器上的会话中注销用户, 并从服务器中删除会话。</t>
+  </si>
+  <si>
     <t>lpq</t>
   </si>
   <si>
+    <t>在运行行式打印机守护程序 (lpd) 的计算机上显示打印队列的状态。</t>
+  </si>
+  <si>
     <t>lpr</t>
   </si>
   <si>
+    <t>将文件发送到运行行式打印机守护程序 (lpd) 服务的计算机或打印机共享设备, 以准备打印。</t>
+  </si>
+  <si>
     <t>macfile</t>
   </si>
   <si>
+    <t>管理 macintosh 服务器、卷、目录和文件的文件服务器。通过在批处理文件中包含一系列命令并手动或在预定时间启动它们, 可以自动执行管理任务。</t>
+  </si>
+  <si>
     <t>makecab</t>
   </si>
   <si>
+    <t>将现有文件打包到 cab 文件中。</t>
+  </si>
+  <si>
     <t>manage-bde</t>
   </si>
   <si>
+    <t>用于打开或关闭 bitlocker、指定解锁机制、更新恢复方法以及解除对 bitlocker 保护的数据驱动器的锁定。此 command-line 工具可用于代替 bitlocker 驱动器加密控制面板项。</t>
+  </si>
+  <si>
     <t>mapadmin</t>
   </si>
   <si>
+    <t>您可以使用 Mapadmin 来管理用于网络文件系统的 microsoft 服务的用户名映射。</t>
+  </si>
+  <si>
     <t>Md</t>
   </si>
   <si>
+    <t>创建目录或子目录。</t>
+  </si>
+  <si>
     <t>mkdir</t>
   </si>
   <si>
+    <t>此命令与 md 命令相同。</t>
+  </si>
+  <si>
     <t>mklink</t>
   </si>
   <si>
+    <t>创建一个符号链接。</t>
+  </si>
+  <si>
     <t>mode</t>
   </si>
   <si>
+    <t>显示系统状态、更改系统设置或重新端口或设备。如果在没有参数的情况下使用, mode 将显示控制台和可用 com 设备的所有可控制属性。</t>
+  </si>
+  <si>
     <t>more</t>
   </si>
   <si>
+    <t>一次显示一个输出屏幕。</t>
+  </si>
+  <si>
     <t>mount</t>
   </si>
   <si>
+    <t>可以使用挂载网络文件系统 (nfs) 网络共享。</t>
+  </si>
+  <si>
     <t>mountvol</t>
   </si>
   <si>
+    <t>创建、删除或列出卷挂载点。</t>
+  </si>
+  <si>
     <t>move</t>
   </si>
   <si>
+    <t>将一个或多个文件从一个目录移动到另一个目录。</t>
+  </si>
+  <si>
     <t>mqbkup</t>
   </si>
   <si>
+    <t>将 msmq 消息文件和注册表设置备份到存储设备, 并恢复以前存储的消息和设置。</t>
+  </si>
+  <si>
     <t>mqsvc</t>
   </si>
   <si>
+    <t>消息队列技术使在不同时间运行的应用程序能够跨异构网络和可能暂时脱机的系统进行通信。消息队列提供有保证的消息传递、高效的路由、安全和优先消息传递。它可用于实现异步和同步消息传递方案的解决方案。</t>
+  </si>
+  <si>
     <t>mqtgsvc</t>
   </si>
   <si>
+    <t>监视传入消息的队列, 并以可执行文件或 com 组件的形式执行操作, 当触发器的规则被计算为 true 时。有关如何使用消息队列触发器服务的示例, 请参见消息队列 Triggerson msdn。</t>
+  </si>
+  <si>
     <t>msdt</t>
   </si>
   <si>
+    <t>在命令行或作为自动脚本的一部分调用故障排除包, 并在不使用用户输入的情况下启用其他选项。</t>
+  </si>
+  <si>
     <t>msg</t>
   </si>
   <si>
+    <t>向远程桌面会话主机 (rd 会话主机) 服务器上的用户发送消息。</t>
+  </si>
+  <si>
     <t>msiexec</t>
   </si>
   <si>
+    <t>提供从命令行在 windows 安装程序上安装、修改和执行操作的方法。</t>
+  </si>
+  <si>
     <t>msinfo32</t>
   </si>
   <si>
+    <t>打开 "系统信息" 工具, 以在本地计算机上显示硬件、系统组件和软件环境的全面视图。</t>
+  </si>
+  <si>
     <t>mstsc</t>
   </si>
   <si>
+    <t>创建到远程桌面会话主机 (rd 会话主机) 服务器或其他远程计算机的连接, 编辑现有的远程桌面连接 (. rdp) 配置文件, 并将使用客户端连接管理器创建的旧式连接文件迁移到新的. rdp 连接文件。</t>
+  </si>
+  <si>
     <t>nbtstat</t>
   </si>
   <si>
+    <t>通过 tcp/ip (netbt) 协议统计、本地计算机和远程计算机的 netbios 名称表以及 netbios 名称缓存显示 netbios。nbtstat 允许刷新 netbios 名称缓存和使用 windows internet 名称服务 (wins) 注册的名称。使用不带参数的 nbtstat 显示帮助。</t>
+  </si>
+  <si>
     <t>netcfg</t>
   </si>
   <si>
+    <t>安装 windows 预安装环境 (winpe), 这是用于部署工作站的轻型 windows 版本。</t>
+  </si>
+  <si>
     <t>netsh</t>
   </si>
   <si>
+    <t>netsh 是一个 command-line 脚本实用程序, 它允许您在本地或远程显示或修改当前正在运行的计算机的网络配置。</t>
+  </si>
+  <si>
     <t>netstat</t>
+  </si>
+  <si>
+    <t>显示活动的 tcp 连接、计算机侦听的端口、以太网统计信息、ip 路由表、IPv4 统计 (用于 ip、icmp、tcp 和 udp 协议) 和 IPv6 统计 (对于 IPv6、ICMPv6、tcp over、 IPv6 和 udp over IPv6 协议)。使用不带参数的 netstat 显示活动的 tcp 连接。</t>
   </si>
   <si>
     <t>Net print</t>
@@ -816,8 +1164,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -830,37 +1178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -868,37 +1195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,14 +1219,42 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -938,7 +1263,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,14 +1300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -968,7 +1308,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -983,7 +1331,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,7 +1403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,13 +1427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,37 +1451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,43 +1469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,43 +1493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,6 +1509,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1177,17 +1525,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,17 +1566,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1227,11 +1573,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1251,21 +1603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1274,6 +1611,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1282,10 +1630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1294,133 +1642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1747,10 +2095,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1870,1189 +2218,1533 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>179</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>185</v>
+      </c>
+      <c r="B94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>189</v>
+      </c>
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>191</v>
+      </c>
+      <c r="B97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>193</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>195</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>197</v>
+      </c>
+      <c r="B100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>199</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>205</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>207</v>
+      </c>
+      <c r="B105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>211</v>
+      </c>
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>213</v>
+      </c>
+      <c r="B108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>217</v>
+      </c>
+      <c r="B110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>219</v>
+      </c>
+      <c r="B111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>227</v>
+      </c>
+      <c r="B115" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>231</v>
+      </c>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>235</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>237</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>239</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>241</v>
+      </c>
+      <c r="B122" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>243</v>
+      </c>
+      <c r="B123" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>245</v>
+      </c>
+      <c r="B124" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>247</v>
+      </c>
+      <c r="B125" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>249</v>
+      </c>
+      <c r="B126" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>253</v>
+      </c>
+      <c r="B128" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>255</v>
+      </c>
+      <c r="B129" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>257</v>
+      </c>
+      <c r="B130" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>259</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>261</v>
+      </c>
+      <c r="B132" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>263</v>
+      </c>
+      <c r="B133" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>154</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>157</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>159</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>160</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>164</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>165</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>171</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>172</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>174</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>177</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>178</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>181</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>186</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>187</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>188</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>189</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>190</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>191</v>
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>192</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>193</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>195</v>
+        <v>313</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>196</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>197</v>
+        <v>315</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>198</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>199</v>
+        <v>317</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>201</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>202</v>
+        <v>320</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>204</v>
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>206</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>207</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>208</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>209</v>
+        <v>327</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>210</v>
+        <v>328</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>211</v>
+        <v>329</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>212</v>
+        <v>330</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>214</v>
+        <v>332</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>217</v>
+        <v>335</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>218</v>
+        <v>336</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>219</v>
+        <v>337</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>220</v>
+        <v>338</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>221</v>
+        <v>339</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>222</v>
+        <v>340</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>223</v>
+        <v>341</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>224</v>
+        <v>342</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>226</v>
+        <v>344</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>229</v>
+        <v>347</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>230</v>
+        <v>348</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>231</v>
+        <v>349</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>232</v>
+        <v>350</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>233</v>
+        <v>351</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>234</v>
+        <v>352</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>236</v>
+        <v>354</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>238</v>
+        <v>356</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>240</v>
+        <v>358</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>241</v>
+        <v>359</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>242</v>
+        <v>360</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>243</v>
+        <v>361</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>247</v>
+        <v>365</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>248</v>
+        <v>366</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>250</v>
+        <v>368</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>251</v>
+        <v>369</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>253</v>
+        <v>371</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>255</v>
+        <v>373</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>256</v>
+        <v>374</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>257</v>
+        <v>375</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>258</v>
+        <v>376</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>259</v>
+        <v>377</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>260</v>
+        <v>378</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>261</v>
+        <v>379</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>264</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
